--- a/Data/Search/manual_search_results_3HL_hn-e.xlsx
+++ b/Data/Search/manual_search_results_3HL_hn-e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C84727B8-166A-4266-B2D6-92227636C7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02F989CE-5D68-4480-89E0-6BF25420C9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -22,124 +22,124 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
-    <t>3_5-5-3_15: 0.025624480125134377</t>
-  </si>
-  <si>
-    <t>3_5-5-3_30: 0.013152339211581465</t>
-  </si>
-  <si>
-    <t>3_5-5-3_50: 0.00852531349085133</t>
-  </si>
-  <si>
-    <t>3_5-5-3_100: 0.008684998529187634</t>
-  </si>
-  <si>
-    <t>3_5-5-3_150: 0.00821523548259707</t>
-  </si>
-  <si>
-    <t>3_5-5-3_200: 0.008805411395381183</t>
-  </si>
-  <si>
-    <t>3_5-5-3_300: 0.006888457604939366</t>
-  </si>
-  <si>
-    <t>3_5-5-3_400: 0.011352665609051462</t>
-  </si>
-  <si>
-    <t>3_5-5-3_500: 0.01065318680545252</t>
-  </si>
-  <si>
-    <t>3_5-5-3_600: 0.018604322514165314</t>
-  </si>
-  <si>
-    <t>3_10-10-6_15: 0.009866652703428291</t>
-  </si>
-  <si>
-    <t>3_10-10-6_30: 0.007928136823332169</t>
-  </si>
-  <si>
-    <t>3_10-10-6_50: 0.007280871935578643</t>
-  </si>
-  <si>
-    <t>3_10-10-6_100: 0.007019174463652858</t>
-  </si>
-  <si>
-    <t>3_10-10-6_150: 0.00961591651374851</t>
-  </si>
-  <si>
-    <t>3_10-10-6_200: 0.0071468919268755406</t>
-  </si>
-  <si>
-    <t>3_10-10-6_300: 0.009479859592583436</t>
-  </si>
-  <si>
-    <t>3_10-10-6_400: 0.006841393095832964</t>
-  </si>
-  <si>
-    <t>3_10-10-6_500: 0.012441056331716513</t>
-  </si>
-  <si>
-    <t>3_10-10-6_600: 0.012596041891806317</t>
-  </si>
-  <si>
-    <t>3_15-15-9_15: 0.009140213717720464</t>
-  </si>
-  <si>
-    <t>3_15-15-9_30: 0.00785935120898737</t>
-  </si>
-  <si>
-    <t>3_15-15-9_50: 0.008476829782637437</t>
-  </si>
-  <si>
-    <t>3_15-15-9_100: 0.009513532296730595</t>
-  </si>
-  <si>
-    <t>3_15-15-9_150: 0.009405431635384183</t>
-  </si>
-  <si>
-    <t>3_15-15-9_200: 0.008895516822270721</t>
-  </si>
-  <si>
-    <t>3_15-15-9_300: 0.019749846513043495</t>
-  </si>
-  <si>
-    <t>3_15-15-9_400: 0.045880759520106236</t>
-  </si>
-  <si>
-    <t>3_15-15-9_500: 0.01915115750187962</t>
-  </si>
-  <si>
-    <t>3_15-15-9_600: 0.026006954307263557</t>
-  </si>
-  <si>
-    <t>3_20-20-12_15: 0.0078273416755821</t>
-  </si>
-  <si>
-    <t>3_20-20-12_30: 0.007381305992277091</t>
-  </si>
-  <si>
-    <t>3_20-20-12_50: 0.00829020332888394</t>
-  </si>
-  <si>
-    <t>3_20-20-12_100: 0.007937925657343671</t>
-  </si>
-  <si>
-    <t>3_20-20-12_150: 0.016250817317557485</t>
-  </si>
-  <si>
-    <t>3_20-20-12_200: 0.013310922974175047</t>
-  </si>
-  <si>
-    <t>3_20-20-12_300: 0.022641888971089725</t>
-  </si>
-  <si>
-    <t>3_20-20-12_400: 0.05862603394730092</t>
-  </si>
-  <si>
-    <t>3_20-20-12_500: 0.06249813488983333</t>
-  </si>
-  <si>
-    <t>3_20-20-12_600: 0.038049444185971316</t>
+    <t>3_5-5-3_15: 0.013961618215094146</t>
+  </si>
+  <si>
+    <t>3_5-5-3_30: 0.009811106040991764</t>
+  </si>
+  <si>
+    <t>3_5-5-3_50: 0.009917653053239701</t>
+  </si>
+  <si>
+    <t>3_5-5-3_100: 0.009108066055345306</t>
+  </si>
+  <si>
+    <t>3_5-5-3_150: 0.008507630632062826</t>
+  </si>
+  <si>
+    <t>3_5-5-3_200: 0.008349550387440534</t>
+  </si>
+  <si>
+    <t>3_5-5-3_300: 0.008737683881602657</t>
+  </si>
+  <si>
+    <t>3_5-5-3_400: 0.007463480288592492</t>
+  </si>
+  <si>
+    <t>3_5-5-3_500: 0.018012786114469</t>
+  </si>
+  <si>
+    <t>3_5-5-3_600: 0.029688448467964975</t>
+  </si>
+  <si>
+    <t>3_10-10-6_15: 0.009468831282978398</t>
+  </si>
+  <si>
+    <t>3_10-10-6_30: 0.008464949937954411</t>
+  </si>
+  <si>
+    <t>3_10-10-6_50: 0.008206713550417898</t>
+  </si>
+  <si>
+    <t>3_10-10-6_100: 0.007357986242554466</t>
+  </si>
+  <si>
+    <t>3_10-10-6_150: 0.011140008776700563</t>
+  </si>
+  <si>
+    <t>3_10-10-6_200: 0.006881804998370521</t>
+  </si>
+  <si>
+    <t>3_10-10-6_300: 0.010244394435297732</t>
+  </si>
+  <si>
+    <t>3_10-10-6_400: 0.008516386582966792</t>
+  </si>
+  <si>
+    <t>3_10-10-6_500: 0.028180353992639812</t>
+  </si>
+  <si>
+    <t>3_10-10-6_600: 0.01143713056673623</t>
+  </si>
+  <si>
+    <t>3_15-15-9_15: 0.008741478788022798</t>
+  </si>
+  <si>
+    <t>3_15-15-9_30: 0.00756361930565773</t>
+  </si>
+  <si>
+    <t>3_15-15-9_50: 0.007769645513434912</t>
+  </si>
+  <si>
+    <t>3_15-15-9_100: 0.007167474385798406</t>
+  </si>
+  <si>
+    <t>3_15-15-9_150: 0.010925240053340857</t>
+  </si>
+  <si>
+    <t>3_15-15-9_200: 0.0071797733552835365</t>
+  </si>
+  <si>
+    <t>3_15-15-9_300: 0.022057368551596932</t>
+  </si>
+  <si>
+    <t>3_15-15-9_400: 0.03850902607530085</t>
+  </si>
+  <si>
+    <t>3_15-15-9_500: 0.08195248705167675</t>
+  </si>
+  <si>
+    <t>3_15-15-9_600: 0.04203343391125521</t>
+  </si>
+  <si>
+    <t>3_20-20-12_15: 0.008284052240841831</t>
+  </si>
+  <si>
+    <t>3_20-20-12_30: 0.007722495431075812</t>
+  </si>
+  <si>
+    <t>3_20-20-12_50: 0.008044736800723602</t>
+  </si>
+  <si>
+    <t>3_20-20-12_100: 0.01065677546506418</t>
+  </si>
+  <si>
+    <t>3_20-20-12_150: 0.01902933875458847</t>
+  </si>
+  <si>
+    <t>3_20-20-12_200: 0.011917094295975206</t>
+  </si>
+  <si>
+    <t>3_20-20-12_300: 0.025306549100984538</t>
+  </si>
+  <si>
+    <t>3_20-20-12_400: 0.05446091440216766</t>
+  </si>
+  <si>
+    <t>3_20-20-12_500: 0.10201466047096962</t>
+  </si>
+  <si>
+    <t>3_20-20-12_600: 0.050103614850711464</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Data/Search/manual_search_results_3HL_hn-e.xlsx
+++ b/Data/Search/manual_search_results_3HL_hn-e.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02F989CE-5D68-4480-89E0-6BF25420C9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C886C3-13E2-4A97-9EB1-13C6AC25493A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual_search_results_3HL_hn-e" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
